--- a/demo_data/Feeding_demo_data/metadata.xlsx
+++ b/demo_data/Feeding_demo_data/metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\KLAB_SNU\demo_scripts\Feeding_demo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\KLAB_SNU\demo_data\Feeding_demo_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Experiment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DEMO waterMED with 48h WD</t>
+    <t>DEMO waterMED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -46,15 +50,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DEMO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MouseID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
+    <t>DEMO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -446,19 +452,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -469,13 +475,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>70522</v>
+        <v>18284</v>
       </c>
       <c r="E3" s="1">
-        <v>286126</v>
+        <v>304647</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -486,13 +492,13 @@
         <v>380</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>107666</v>
+        <v>62890</v>
       </c>
       <c r="E4" s="1">
-        <v>289620</v>
+        <v>290027</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
